--- a/Feds. y Confeds. sector privado.xlsx
+++ b/Feds. y Confeds. sector privado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebao\Documents\GitHub\Federaciones-y-Confederaciones-sindicales--1930-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3BB911-2625-4C85-B949-4967AF36CD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8A9E80-3B37-4499-8F08-6BE644D8974F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leeme" sheetId="7" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>Año</t>
   </si>
@@ -271,12 +271,105 @@
   <si>
     <t>Confederaciones sindicales vigentes</t>
   </si>
+  <si>
+    <t>Confederaciones sindicales creadas, en receso y vigentes, 1932-2021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Osorio, Sebastián (2021): "Confederaciones sindicales creadas, en receso y vigentes, 1932-2021". En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repositorio de Estadísticas Sindicales, 1900-2020</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. CIPSTRA, GETSUR y VV.AA. Disponible en: https://repositoriosindical.netlify.app/ </t>
+    </r>
+  </si>
+  <si>
+    <t>Federaciones sindicales creadas, en receso y vigentes, 1932-2021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Osorio, Sebastián (2021): "Federaciones sindicales creadas, en receso y vigentes, 1932-2021". En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repositorio de Estadísticas Sindicales, 1900-2020</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. CIPSTRA, GETSUR y VV.AA. Disponible en: https://repositoriosindical.netlify.app/ </t>
+    </r>
+  </si>
+  <si>
+    <t>Federaciones y confederaciones sindicales creadas y vigentes, 1932-2021</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Osorio, Sebastián (2021): "Federaciones y confederaciones sindicales creadas y vigentes, 1932-2021". En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Repositorio de Estadísticas Sindicales, 1900-2020</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. CIPSTRA, GETSUR y VV.AA. Disponible en: https://repositoriosindical.netlify.app/ </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +401,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -329,7 +431,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -349,9 +451,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,7 +501,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Totales sector privado'!$B$1</c:f>
+              <c:f>'Totales sector privado'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -418,7 +524,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Totales sector privado'!$A$2:$A$49</c:f>
+              <c:f>'Totales sector privado'!$A$3:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -571,7 +677,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totales sector privado'!$B$2:$B$49</c:f>
+              <c:f>'Totales sector privado'!$B$3:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -733,7 +839,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Totales sector privado'!$C$1</c:f>
+              <c:f>'Totales sector privado'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -756,7 +862,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Totales sector privado'!$A$2:$A$49</c:f>
+              <c:f>'Totales sector privado'!$A$3:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -909,7 +1015,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totales sector privado'!$C$2:$C$49</c:f>
+              <c:f>'Totales sector privado'!$C$3:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1087,7 +1193,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Totales sector privado'!$D$1</c:f>
+              <c:f>'Totales sector privado'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1110,7 +1216,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Totales sector privado'!$D$2:$D$49</c:f>
+              <c:f>'Totales sector privado'!$D$3:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1273,7 +1379,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Totales sector privado'!$E$1</c:f>
+              <c:f>'Totales sector privado'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1296,7 +1402,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Totales sector privado'!$E$2:$E$49</c:f>
+              <c:f>'Totales sector privado'!$E$3:$E$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="48"/>
@@ -1838,7 +1944,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Totales sector privado'!$B$1</c:f>
+              <c:f>'Totales sector privado'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1864,11 +1970,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Totales sector privado'!$A$2:$A$90</c15:sqref>
+                    <c15:sqref>'Totales sector privado'!$A$3:$A$91</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Totales sector privado'!$A$50:$A$90</c:f>
+              <c:f>'Totales sector privado'!$A$51:$A$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2003,11 +2109,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Totales sector privado'!$B$2:$B$91</c15:sqref>
+                    <c15:sqref>'Totales sector privado'!$B$3:$B$92</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Totales sector privado'!$B$50:$B$91</c:f>
+              <c:f>'Totales sector privado'!$B$51:$B$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -2151,7 +2257,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Totales sector privado'!$C$1</c:f>
+              <c:f>'Totales sector privado'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2177,11 +2283,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Totales sector privado'!$A$2:$A$90</c15:sqref>
+                    <c15:sqref>'Totales sector privado'!$A$3:$A$91</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Totales sector privado'!$A$50:$A$90</c:f>
+              <c:f>'Totales sector privado'!$A$51:$A$91</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
@@ -2316,11 +2422,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Totales sector privado'!$C$2:$C$91</c15:sqref>
+                    <c15:sqref>'Totales sector privado'!$C$3:$C$92</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Totales sector privado'!$C$50:$C$91</c:f>
+              <c:f>'Totales sector privado'!$C$51:$C$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -2480,7 +2586,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Totales sector privado'!$D$1</c:f>
+              <c:f>'Totales sector privado'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2642,11 +2748,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Totales sector privado'!$D$2:$D$91</c15:sqref>
+                    <c15:sqref>'Totales sector privado'!$D$3:$D$92</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Totales sector privado'!$D$50:$D$91</c:f>
+              <c:f>'Totales sector privado'!$D$51:$D$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -2791,7 +2897,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Totales sector privado'!$E$1</c:f>
+              <c:f>'Totales sector privado'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2953,11 +3059,11 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>'Totales sector privado'!$E$2:$E$91</c15:sqref>
+                    <c15:sqref>'Totales sector privado'!$E$3:$E$92</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>'Totales sector privado'!$E$50:$E$91</c:f>
+              <c:f>'Totales sector privado'!$E$51:$E$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
@@ -4578,13 +4684,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7619</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>13854</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4614,13 +4720,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>7619</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>13854</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4916,8 +5022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AA9F49-4F7B-4F03-81DF-1F0B4E8681F6}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5007,10 +5113,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G92"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5020,50 +5126,42 @@
     <col min="7" max="7" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1932</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -5083,27 +5181,27 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <v>1933</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>1934</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>1935</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -5123,7 +5221,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -5143,7 +5241,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -5163,7 +5261,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -5183,7 +5281,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -5203,7 +5301,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -5223,7 +5321,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -5243,50 +5341,50 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
+        <v>1941</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>1942</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>1943</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>1944</v>
-      </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -5303,7 +5401,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -5323,7 +5421,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -5343,7 +5441,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -5363,33 +5461,33 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
+        <v>1947</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>1948</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>1949</v>
-      </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -5398,18 +5496,18 @@
         <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -5418,35 +5516,35 @@
         <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
+        <v>1950</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>1951</v>
       </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>1952</v>
-      </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1">
         <v>4</v>
@@ -5463,7 +5561,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -5482,31 +5580,31 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
+        <v>1953</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>1954</v>
       </c>
-      <c r="B24" s="1">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
-        <v>5</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>1955</v>
-      </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
@@ -5523,7 +5621,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -5543,7 +5641,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -5562,14 +5660,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>1958</v>
+      <c r="A28" s="2">
+        <v>1957</v>
       </c>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="1">
         <v>0</v>
@@ -5578,18 +5676,18 @@
         <v>0</v>
       </c>
       <c r="F28" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="1">
         <v>0</v>
@@ -5598,35 +5696,35 @@
         <v>0</v>
       </c>
       <c r="F29" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
+        <v>1959</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>7</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>1960</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B31" s="1">
         <v>2</v>
-      </c>
-      <c r="C30" s="1">
-        <v>9</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>1961</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0</v>
       </c>
       <c r="C31" s="1">
         <v>9</v>
@@ -5643,7 +5741,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -5662,14 +5760,14 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>1963</v>
+      <c r="A33" s="2">
+        <v>1962</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="1">
         <v>0</v>
@@ -5678,18 +5776,18 @@
         <v>0</v>
       </c>
       <c r="F33" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
@@ -5698,15 +5796,15 @@
         <v>0</v>
       </c>
       <c r="F34" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
         <v>11</v>
@@ -5722,8 +5820,8 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>1966</v>
+      <c r="A36" s="1">
+        <v>1965</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -5742,14 +5840,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>1967</v>
+      <c r="A37" s="2">
+        <v>1966</v>
       </c>
       <c r="B37" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -5758,18 +5856,18 @@
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B38" s="1">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C38" s="1">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -5778,18 +5876,18 @@
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B39" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D39" s="1">
         <v>0</v>
@@ -5798,18 +5896,18 @@
         <v>0</v>
       </c>
       <c r="F39" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B40" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D40" s="1">
         <v>0</v>
@@ -5818,18 +5916,18 @@
         <v>0</v>
       </c>
       <c r="F40" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D41" s="1">
         <v>0</v>
@@ -5838,35 +5936,35 @@
         <v>0</v>
       </c>
       <c r="F41" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
+        <v>1971</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>51</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
         <v>1972</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B43" s="1">
         <v>2</v>
-      </c>
-      <c r="C42" s="1">
-        <v>53</v>
-      </c>
-      <c r="D42" s="1">
-        <v>0</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0</v>
-      </c>
-      <c r="F42" s="1">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>1973</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0</v>
       </c>
       <c r="C43" s="1">
         <v>53</v>
@@ -5883,7 +5981,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -5903,7 +6001,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -5922,14 +6020,14 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>1976</v>
+      <c r="A46" s="2">
+        <v>1975</v>
       </c>
       <c r="B46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D46" s="1">
         <v>0</v>
@@ -5938,35 +6036,35 @@
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
+        <v>1976</v>
+      </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>54</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
         <v>1977</v>
       </c>
-      <c r="B47" s="1">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1">
-        <v>55</v>
-      </c>
-      <c r="D47" s="1">
-        <v>0</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>1978</v>
-      </c>
       <c r="B48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1">
         <v>55</v>
@@ -5982,8 +6080,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>1979</v>
+      <c r="A49" s="2">
+        <v>1978</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -6003,53 +6101,53 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B50" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D50" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>43</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B51" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C51" s="1">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E51" s="1">
         <v>25</v>
       </c>
       <c r="F51" s="1">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B52" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C52" s="1">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -6058,805 +6156,829 @@
         <v>25</v>
       </c>
       <c r="F52" s="1">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B53" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C53" s="1">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D53" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E53" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F53" s="1">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B54" s="1">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C54" s="1">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D54" s="1">
         <v>5</v>
       </c>
       <c r="E54" s="1">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F54" s="1">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B55" s="1">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C55" s="1">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D55" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E55" s="1">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F55" s="1">
-        <v>98</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B56" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C56" s="1">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="D56" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E56" s="1">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F56" s="1">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B57" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C57" s="1">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D57" s="1">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E57" s="1">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="F57" s="1">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B58" s="1">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C58" s="1">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="D58" s="1">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E58" s="1">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F58" s="1">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B59" s="1">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C59" s="1">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="D59" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E59" s="1">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F59" s="1">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B60" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C60" s="1">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="D60" s="1">
         <v>9</v>
       </c>
       <c r="E60" s="1">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F60" s="1">
-        <v>170</v>
+        <v>139</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B61" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C61" s="1">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="D61" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E61" s="1">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="F61" s="1">
-        <v>184</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B62" s="1">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C62" s="1">
-        <v>322</v>
+        <v>296</v>
       </c>
       <c r="D62" s="1">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="E62" s="1">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="F62" s="1">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B63" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C63" s="1">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="D63" s="1">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E63" s="1">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F63" s="1">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B64" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C64" s="1">
-        <v>372</v>
+        <v>346</v>
       </c>
       <c r="D64" s="1">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E64" s="1">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="F64" s="1">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B65" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C65" s="1">
-        <v>394</v>
+        <v>372</v>
       </c>
       <c r="D65" s="1">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E65" s="1">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="F65" s="1">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B66" s="1">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C66" s="1">
-        <v>423</v>
+        <v>394</v>
       </c>
       <c r="D66" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E66" s="1">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="F66" s="1">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B67" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C67" s="1">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="D67" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E67" s="1">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="F67" s="1">
-        <v>240</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B68" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C68" s="1">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="D68" s="1">
         <v>12</v>
       </c>
       <c r="E68" s="1">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="F68" s="1">
-        <v>253</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B69" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C69" s="1">
-        <v>489</v>
+        <v>471</v>
       </c>
       <c r="D69" s="1">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E69" s="1">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="F69" s="1">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B70" s="1">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C70" s="1">
-        <v>512</v>
+        <v>489</v>
       </c>
       <c r="D70" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E70" s="1">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="F70" s="1">
-        <v>270</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B71" s="1">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C71" s="1">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="D71" s="1">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E71" s="1">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="F71" s="1">
-        <v>284</v>
+        <v>270</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B72" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C72" s="1">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="D72" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E72" s="1">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F72" s="1">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B73" s="1">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C73" s="1">
-        <v>604</v>
+        <v>565</v>
       </c>
       <c r="D73" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E73" s="1">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F73" s="1">
-        <v>340</v>
+        <v>304</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B74" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C74" s="1">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="D74" s="1">
         <v>3</v>
       </c>
       <c r="E74" s="1">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F74" s="1">
-        <v>373</v>
+        <v>340</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B75" s="1">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C75" s="1">
-        <v>669</v>
+        <v>640</v>
       </c>
       <c r="D75" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E75" s="1">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F75" s="1">
-        <v>394</v>
+        <v>373</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B76" s="1">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C76" s="1">
-        <v>705</v>
+        <v>669</v>
       </c>
       <c r="D76" s="1">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E76" s="1">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="F76" s="1">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B77" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C77" s="1">
-        <v>743</v>
+        <v>705</v>
       </c>
       <c r="D77" s="1">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E77" s="1">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="F77" s="1">
-        <v>425</v>
+        <v>414</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B78" s="1">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C78" s="1">
-        <v>791</v>
+        <v>743</v>
       </c>
       <c r="D78" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E78" s="1">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="F78" s="1">
-        <v>447</v>
+        <v>425</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B79" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C79" s="1">
-        <v>835</v>
+        <v>791</v>
       </c>
       <c r="D79" s="1">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E79" s="1">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="F79" s="1">
-        <v>478</v>
+        <v>447</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B80" s="1">
         <v>44</v>
       </c>
       <c r="C80" s="1">
-        <v>879</v>
+        <v>835</v>
       </c>
       <c r="D80" s="1">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E80" s="1">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="F80" s="1">
-        <v>506</v>
+        <v>478</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B81" s="1">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C81" s="1">
-        <v>932</v>
+        <v>879</v>
       </c>
       <c r="D81" s="1">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="E81" s="1">
-        <v>402</v>
+        <v>373</v>
       </c>
       <c r="F81" s="1">
-        <v>530</v>
+        <v>506</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B82" s="1">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C82" s="1">
-        <v>962</v>
+        <v>932</v>
       </c>
       <c r="D82" s="1">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="E82" s="1">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="F82" s="1">
-        <v>540</v>
+        <v>530</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B83" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C83" s="1">
-        <v>987</v>
+        <v>962</v>
       </c>
       <c r="D83" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E83" s="1">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="F83" s="1">
-        <v>544</v>
+        <v>540</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B84" s="1">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C84" s="1">
-        <v>1047</v>
+        <v>987</v>
       </c>
       <c r="D84" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E84" s="1">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="F84" s="1">
-        <v>579</v>
+        <v>544</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B85" s="1">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C85" s="1">
-        <v>1090</v>
+        <v>1047</v>
       </c>
       <c r="D85" s="1">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E85" s="1">
-        <v>498</v>
+        <v>468</v>
       </c>
       <c r="F85" s="1">
-        <v>592</v>
+        <v>579</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B86" s="1">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C86" s="1">
-        <v>1121</v>
+        <v>1090</v>
       </c>
       <c r="D86" s="1">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E86" s="1">
-        <v>535</v>
+        <v>498</v>
       </c>
       <c r="F86" s="1">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B87" s="1">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C87" s="1">
-        <v>1172</v>
+        <v>1121</v>
       </c>
       <c r="D87" s="1">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E87" s="1">
-        <v>564</v>
+        <v>535</v>
       </c>
       <c r="F87" s="1">
-        <v>608</v>
+        <v>586</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B88" s="1">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C88" s="1">
-        <v>1199</v>
+        <v>1172</v>
       </c>
       <c r="D88" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E88" s="1">
-        <v>592</v>
+        <v>564</v>
       </c>
       <c r="F88" s="1">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B89" s="1">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C89" s="1">
-        <v>1232</v>
+        <v>1199</v>
       </c>
       <c r="D89" s="1">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="E89" s="1">
-        <v>656</v>
+        <v>592</v>
       </c>
       <c r="F89" s="1">
-        <v>576</v>
+        <v>607</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B90" s="1">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C90" s="1">
-        <v>1247</v>
+        <v>1232</v>
       </c>
       <c r="D90" s="1">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="E90" s="1">
-        <v>745</v>
+        <v>656</v>
       </c>
       <c r="F90" s="1">
-        <v>502</v>
+        <v>576</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B91" s="1">
+        <v>15</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1247</v>
+      </c>
+      <c r="D91" s="1">
+        <v>89</v>
+      </c>
+      <c r="E91" s="1">
+        <v>745</v>
+      </c>
+      <c r="F91" s="1">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
         <v>2021</v>
       </c>
-      <c r="B91" s="1">
-        <v>1</v>
-      </c>
-      <c r="C91" s="1">
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
         <v>1248</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D92" s="1">
         <v>134</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E92" s="1">
         <v>879</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F92" s="1">
         <v>369</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D05073A4-56EE-46C8-A034-E8A735F7F4C5}">
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="B1:F1048576"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6865,49 +6987,42 @@
     <col min="2" max="6" width="18.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="5" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1932</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="B3" s="1">
         <v>0</v>
@@ -6927,30 +7042,30 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
+        <v>1933</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>1934</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>1935</v>
-      </c>
       <c r="B5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -6964,16 +7079,10 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <v>1936</v>
+        <v>1935</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -6999,7 +7108,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>1937</v>
+        <v>1936</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -7025,7 +7134,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -7042,10 +7151,16 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -7065,7 +7180,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <v>1940</v>
+        <v>1939</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -7085,7 +7200,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -7105,7 +7220,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -7125,7 +7240,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -7145,7 +7260,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -7165,7 +7280,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -7185,7 +7300,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -7205,7 +7320,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -7225,13 +7340,13 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -7240,15 +7355,15 @@
         <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
@@ -7265,7 +7380,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -7285,7 +7400,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -7305,7 +7420,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -7325,7 +7440,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -7345,7 +7460,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -7365,7 +7480,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -7385,7 +7500,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -7405,7 +7520,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -7425,7 +7540,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -7445,7 +7560,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -7465,7 +7580,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -7485,7 +7600,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -7505,7 +7620,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -7524,31 +7639,31 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
+        <v>1962</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
         <v>1963</v>
       </c>
-      <c r="B33" s="1">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>1964</v>
-      </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
@@ -7564,31 +7679,31 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
+        <v>1964</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
         <v>1965</v>
       </c>
-      <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1">
-        <v>4</v>
-      </c>
-      <c r="D35" s="1">
-        <v>0</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0</v>
-      </c>
-      <c r="F35" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>1966</v>
-      </c>
       <c r="B36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36" s="1">
         <v>4</v>
@@ -7604,14 +7719,14 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>1967</v>
+      <c r="A37" s="2">
+        <v>1966</v>
       </c>
       <c r="B37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1">
         <v>0</v>
@@ -7620,18 +7735,18 @@
         <v>0</v>
       </c>
       <c r="F37" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C38" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D38" s="1">
         <v>0</v>
@@ -7640,35 +7755,35 @@
         <v>0</v>
       </c>
       <c r="F38" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
+        <v>1968</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>8</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
         <v>1969</v>
       </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1">
-        <v>9</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
-        <v>1970</v>
-      </c>
       <c r="B40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C40" s="1">
         <v>9</v>
@@ -7685,7 +7800,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
@@ -7705,7 +7820,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -7725,7 +7840,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -7745,7 +7860,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -7765,7 +7880,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -7785,7 +7900,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
-        <v>1976</v>
+        <v>1975</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
@@ -7805,7 +7920,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -7825,7 +7940,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -7844,14 +7959,14 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>1979</v>
+      <c r="A49" s="2">
+        <v>1978</v>
       </c>
       <c r="B49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C49" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D49" s="1">
         <v>0</v>
@@ -7860,58 +7975,58 @@
         <v>0</v>
       </c>
       <c r="F49" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B50" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C50" s="1">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F50" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B51" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C51" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D51" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E51" s="1">
         <v>3</v>
       </c>
       <c r="F51" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C52" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D52" s="1">
         <v>0</v>
@@ -7920,98 +8035,98 @@
         <v>3</v>
       </c>
       <c r="F52" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1">
+        <v>19</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
         <v>3</v>
       </c>
-      <c r="C53" s="1">
-        <v>22</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1</v>
-      </c>
-      <c r="E53" s="1">
-        <v>4</v>
-      </c>
       <c r="F53" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B54" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="1">
         <v>4</v>
       </c>
       <c r="F54" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B55" s="1">
         <v>2</v>
       </c>
       <c r="C55" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F55" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B56" s="1">
         <v>2</v>
       </c>
       <c r="C56" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1">
         <v>5</v>
       </c>
       <c r="F56" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B57" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C57" s="1">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D57" s="1">
         <v>0</v>
@@ -8020,18 +8135,18 @@
         <v>5</v>
       </c>
       <c r="F57" s="1">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B58" s="1">
         <v>5</v>
       </c>
       <c r="C58" s="1">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D58" s="1">
         <v>0</v>
@@ -8040,104 +8155,104 @@
         <v>5</v>
       </c>
       <c r="F58" s="1">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B59" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C59" s="1">
         <v>38</v>
       </c>
       <c r="D59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B60" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C60" s="1">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D60" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E60" s="1">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F60" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B61" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C61" s="1">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D61" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E61" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F61" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B62" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="1">
         <v>11</v>
       </c>
       <c r="F62" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C63" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D63" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F63" s="1">
         <v>36</v>
@@ -8145,10 +8260,10 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B64" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C64" s="1">
         <v>49</v>
@@ -8157,55 +8272,55 @@
         <v>2</v>
       </c>
       <c r="E64" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F64" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B65" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C65" s="1">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D65" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E65" s="1">
         <v>15</v>
       </c>
       <c r="F65" s="1">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B66" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C66" s="1">
         <v>54</v>
       </c>
       <c r="D66" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E66" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F66" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -8214,7 +8329,7 @@
         <v>54</v>
       </c>
       <c r="D67" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" s="1">
         <v>16</v>
@@ -8225,50 +8340,50 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C68" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D68" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E68" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F68" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B69" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C69" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E69" s="1">
         <v>18</v>
       </c>
       <c r="F69" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B70" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C70" s="1">
         <v>58</v>
@@ -8285,7 +8400,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
@@ -8305,7 +8420,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
@@ -8314,44 +8429,44 @@
         <v>58</v>
       </c>
       <c r="D72" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F72" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B73" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C73" s="1">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D73" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="1">
         <v>19</v>
       </c>
       <c r="F73" s="1">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B74" s="1">
         <v>3</v>
       </c>
       <c r="C74" s="1">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D74" s="1">
         <v>0</v>
@@ -8360,15 +8475,15 @@
         <v>19</v>
       </c>
       <c r="F74" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B75" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C75" s="1">
         <v>64</v>
@@ -8385,13 +8500,13 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B76" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C76" s="1">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D76" s="1">
         <v>0</v>
@@ -8400,81 +8515,81 @@
         <v>19</v>
       </c>
       <c r="F76" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B77" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C77" s="1">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D77" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E77" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F77" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B78" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C78" s="1">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D78" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F78" s="1">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B79" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C79" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D79" s="1">
         <v>2</v>
       </c>
       <c r="E79" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F79" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" s="1">
         <v>75</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E80" s="1">
         <v>24</v>
@@ -8485,39 +8600,39 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B81" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C81" s="1">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D81" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F81" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="1">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D82" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E82" s="1">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F82" s="1">
         <v>54</v>
@@ -8525,93 +8640,93 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B83" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C83" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E83" s="1">
         <v>27</v>
       </c>
       <c r="F83" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B84" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" s="1">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E84" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F84" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B85" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D85" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E85" s="1">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F85" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B86" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" s="1">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D86" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E86" s="1">
         <v>31</v>
       </c>
       <c r="F86" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B87" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C87" s="1">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D87" s="1">
         <v>0</v>
@@ -8620,24 +8735,24 @@
         <v>31</v>
       </c>
       <c r="F87" s="1">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B88" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C88" s="1">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D88" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E88" s="1">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F88" s="1">
         <v>61</v>
@@ -8645,27 +8760,27 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B89" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C89" s="1">
         <v>94</v>
       </c>
       <c r="D89" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E89" s="1">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F89" s="1">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -8674,18 +8789,18 @@
         <v>94</v>
       </c>
       <c r="D90" s="1">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E90" s="1">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="F90" s="1">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -8694,31 +8809,54 @@
         <v>94</v>
       </c>
       <c r="D91" s="1">
+        <v>14</v>
+      </c>
+      <c r="E91" s="1">
+        <v>52</v>
+      </c>
+      <c r="F91" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B92" s="1">
+        <v>0</v>
+      </c>
+      <c r="C92" s="1">
+        <v>94</v>
+      </c>
+      <c r="D92" s="1">
         <v>2</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E92" s="1">
         <v>54</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F92" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8C3094-7F51-4499-B78F-60503DE16E82}">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8727,264 +8865,259 @@
     <col min="2" max="5" width="15.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>1932</v>
       </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>1933</v>
       </c>
-      <c r="B3" s="1">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>1934</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>1935</v>
       </c>
-      <c r="B5" s="1">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>1936</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>1937</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
         <v>1938</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
         <v>1939</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
         <v>1940</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
         <v>1941</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>1942</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>1943</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
         <v>1944</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>1945</v>
-      </c>
-      <c r="B15" s="1">
-        <v>0</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>1946</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -9001,7 +9134,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <v>1947</v>
+        <v>1946</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -9018,33 +9151,33 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
+        <v>1947</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
         <v>1948</v>
       </c>
-      <c r="B18" s="1">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>1949</v>
-      </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
@@ -9052,7 +9185,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -9061,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -9069,7 +9202,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
@@ -9078,18 +9211,18 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>1952</v>
+      <c r="A22" s="1">
+        <v>1951</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -9103,7 +9236,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B23" s="1">
         <v>0</v>
@@ -9119,28 +9252,28 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>1954</v>
+      <c r="A24" s="2">
+        <v>1953</v>
       </c>
       <c r="B24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
       </c>
       <c r="D24" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E24" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>1955</v>
+      <c r="A25" s="1">
+        <v>1954</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -9154,7 +9287,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -9171,7 +9304,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -9187,17 +9320,17 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>1958</v>
+      <c r="A28" s="2">
+        <v>1957</v>
       </c>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
       </c>
       <c r="D28" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E28" s="1">
         <v>2</v>
@@ -9205,7 +9338,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -9214,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1">
         <v>2</v>
@@ -9222,27 +9355,27 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="B30" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E30" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>1961</v>
+      <c r="A31" s="1">
+        <v>1960</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -9256,7 +9389,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="B32" s="1">
         <v>0</v>
@@ -9272,34 +9405,34 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>1963</v>
+      <c r="A33" s="2">
+        <v>1962</v>
       </c>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E33" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>1964</v>
+        <v>1963</v>
       </c>
       <c r="B34" s="1">
         <v>1</v>
       </c>
       <c r="C34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E34" s="1">
         <v>3</v>
@@ -9307,30 +9440,30 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>1965</v>
+        <v>1964</v>
       </c>
       <c r="B35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1">
         <v>11</v>
       </c>
       <c r="E35" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>1966</v>
+      <c r="A36" s="1">
+        <v>1965</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
       </c>
       <c r="C36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="1">
         <v>11</v>
@@ -9340,68 +9473,68 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>1967</v>
+      <c r="A37" s="2">
+        <v>1966</v>
       </c>
       <c r="B37" s="1">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="1">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E37" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>1968</v>
+        <v>1967</v>
       </c>
       <c r="B38" s="1">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C38" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E38" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>1969</v>
+        <v>1968</v>
       </c>
       <c r="B39" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39" s="1">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E39" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>1970</v>
+        <v>1969</v>
       </c>
       <c r="B40" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D40" s="1">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E40" s="1">
         <v>9</v>
@@ -9409,16 +9542,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>1971</v>
+        <v>1970</v>
       </c>
       <c r="B41" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E41" s="1">
         <v>9</v>
@@ -9426,27 +9559,27 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="B42" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
       </c>
       <c r="D42" s="1">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E42" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
-        <v>1973</v>
+      <c r="A43" s="1">
+        <v>1972</v>
       </c>
       <c r="B43" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -9460,7 +9593,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -9477,7 +9610,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -9493,17 +9626,17 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="1">
-        <v>1976</v>
+      <c r="A46" s="2">
+        <v>1975</v>
       </c>
       <c r="B46" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
       </c>
       <c r="D46" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E46" s="1">
         <v>9</v>
@@ -9511,7 +9644,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -9520,18 +9653,18 @@
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E47" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
-        <v>1978</v>
+      <c r="A48" s="1">
+        <v>1977</v>
       </c>
       <c r="B48" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -9544,255 +9677,255 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
-        <v>1979</v>
+      <c r="A49" s="2">
+        <v>1978</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
       </c>
       <c r="C49" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1">
         <v>55</v>
       </c>
       <c r="E49" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="B50" s="1">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C50" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D50" s="1">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="E50" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>1981</v>
+        <v>1980</v>
       </c>
       <c r="B51" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C51" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D51" s="1">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E51" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="B52" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C52" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D52" s="1">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E52" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="B53" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C53" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D53" s="1">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E53" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="B54" s="1">
+        <v>11</v>
+      </c>
+      <c r="C54" s="1">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1">
+        <v>66</v>
+      </c>
+      <c r="E54" s="1">
         <v>18</v>
-      </c>
-      <c r="C54" s="1">
-        <v>2</v>
-      </c>
-      <c r="D54" s="1">
-        <v>79</v>
-      </c>
-      <c r="E54" s="1">
-        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B55" s="1">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C55" s="1">
         <v>2</v>
       </c>
       <c r="D55" s="1">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="E55" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B56" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C56" s="1">
         <v>2</v>
       </c>
       <c r="D56" s="1">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E56" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="B57" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C57" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" s="1">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E57" s="1">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>1988</v>
+        <v>1987</v>
       </c>
       <c r="B58" s="1">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C58" s="1">
         <v>5</v>
       </c>
       <c r="D58" s="1">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="E58" s="1">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="B59" s="1">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C59" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D59" s="1">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E59" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="B60" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C60" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D60" s="1">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="E60" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="B61" s="1">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C61" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" s="1">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="E61" s="1">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="B62" s="1">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C62" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D62" s="1">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="E62" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="B63" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C63" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D63" s="1">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E63" s="1">
         <v>36</v>
@@ -9800,67 +9933,67 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="B64" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C64" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D64" s="1">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E64" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="B65" s="1">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C65" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="E65" s="1">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B66" s="1">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C66" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D66" s="1">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="E66" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B67" s="1">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
       </c>
       <c r="D67" s="1">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="E67" s="1">
         <v>38</v>
@@ -9868,50 +10001,50 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="B68" s="1">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C68" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D68" s="1">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="E68" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="B69" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C69" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69" s="1">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E69" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B70" s="1">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C70" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D70" s="1">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="E70" s="1">
         <v>40</v>
@@ -9919,16 +10052,16 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="B71" s="1">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
       </c>
       <c r="D71" s="1">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="E71" s="1">
         <v>40</v>
@@ -9936,67 +10069,67 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B72" s="1">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
       </c>
       <c r="D72" s="1">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="E72" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="B73" s="1">
+        <v>25</v>
+      </c>
+      <c r="C73" s="1">
+        <v>0</v>
+      </c>
+      <c r="D73" s="1">
+        <v>304</v>
+      </c>
+      <c r="E73" s="1">
         <v>39</v>
-      </c>
-      <c r="C73" s="1">
-        <v>3</v>
-      </c>
-      <c r="D73" s="1">
-        <v>340</v>
-      </c>
-      <c r="E73" s="1">
-        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B74" s="1">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C74" s="1">
         <v>3</v>
       </c>
       <c r="D74" s="1">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="E74" s="1">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B75" s="1">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C75" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D75" s="1">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="E75" s="1">
         <v>45</v>
@@ -10004,84 +10137,84 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B76" s="1">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C76" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D76" s="1">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="E76" s="1">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B77" s="1">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C77" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" s="1">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="E77" s="1">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B78" s="1">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C78" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D78" s="1">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="E78" s="1">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B79" s="1">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C79" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D79" s="1">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="E79" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B80" s="1">
         <v>44</v>
       </c>
       <c r="C80" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D80" s="1">
-        <v>506</v>
+        <v>478</v>
       </c>
       <c r="E80" s="1">
         <v>51</v>
@@ -10089,33 +10222,33 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B81" s="1">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C81" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D81" s="1">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="E81" s="1">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B82" s="1">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C82" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" s="1">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="E82" s="1">
         <v>54</v>
@@ -10123,101 +10256,101 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B83" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C83" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D83" s="1">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E83" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B84" s="1">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C84" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" s="1">
-        <v>579</v>
+        <v>544</v>
       </c>
       <c r="E84" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B85" s="1">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C85" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D85" s="1">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="E85" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B86" s="1">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C86" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D86" s="1">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="E86" s="1">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B87" s="1">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C87" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87" s="1">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="E87" s="1">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B88" s="1">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C88" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" s="1">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E88" s="1">
         <v>61</v>
@@ -10225,61 +10358,81 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B89" s="1">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C89" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D89" s="1">
-        <v>576</v>
+        <v>607</v>
       </c>
       <c r="E89" s="1">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B90" s="1">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="C90" s="1">
         <v>0</v>
       </c>
       <c r="D90" s="1">
-        <v>502</v>
+        <v>576</v>
       </c>
       <c r="E90" s="1">
-        <v>42</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B91" s="1">
+        <v>15</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>502</v>
+      </c>
+      <c r="E91" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
         <v>2021</v>
       </c>
-      <c r="B91" s="1">
-        <v>1</v>
-      </c>
-      <c r="C91" s="1">
-        <v>0</v>
-      </c>
-      <c r="D91" s="1">
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
         <v>369</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E92" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Feds. y Confeds. sector privado.xlsx
+++ b/Feds. y Confeds. sector privado.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebao\Documents\GitHub\Federaciones-y-Confederaciones-sindicales--1930-2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8A9E80-3B37-4499-8F08-6BE644D8974F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1DC54AD-70EA-43A9-9705-AE6CDBF0A640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Leeme" sheetId="7" r:id="rId1"/>
     <sheet name="Federaciones S." sheetId="1" r:id="rId2"/>
     <sheet name="Confederaciones S." sheetId="2" r:id="rId3"/>
     <sheet name="Totales sector privado" sheetId="5" r:id="rId4"/>
+    <sheet name="Gráficos" sheetId="8" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -454,10 +459,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3592,6 +3597,3779 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Sector privado'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Federaciones creadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Sector privado'!$A$2:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1948</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1949</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Sector privado'!$B$2:$B$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7AA7-4346-9F86-4B435E7B3E96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Sector privado'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Confederaciones creadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Sector privado'!$A$2:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1948</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1949</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Sector privado'!$C$2:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7AA7-4346-9F86-4B435E7B3E96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="518693904"/>
+        <c:axId val="518696784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="518693904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="518696784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="518696784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="25"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800"/>
+                  <a:t>Feds. y Confeds. Creadas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="518693904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Sector privado'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Federaciones vigentes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Sector privado'!$A$2:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1948</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1949</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Sector privado'!$D$2:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DE6-4643-AA35-2D7E2A3756A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Sector privado'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Confederaciones vigentes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'[1]Sector privado'!$A$2:$A$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1948</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1949</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1979</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'[1]Sector privado'!$E$2:$E$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2DE6-4643-AA35-2D7E2A3756A3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-22"/>
+        <c:axId val="518693904"/>
+        <c:axId val="518696784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="518693904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="518696784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="518696784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800"/>
+                  <a:t>Feds. y Confeds. Vigentes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="518693904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Sector privado'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Federaciones creadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'[1]Sector privado'!$A$2:$A$90</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'[1]Sector privado'!$A$50:$A$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'[1]Sector privado'!$B$2:$B$91</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'[1]Sector privado'!$B$50:$B$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D7A-4C96-9629-ED29DCC67FD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Sector privado'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Confederaciones creadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'[1]Sector privado'!$A$2:$A$90</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'[1]Sector privado'!$A$50:$A$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'[1]Sector privado'!$C$2:$C$91</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'[1]Sector privado'!$C$50:$C$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0D7A-4C96-9629-ED29DCC67FD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="518693904"/>
+        <c:axId val="518696784"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="518693904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="518696784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="518696784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800"/>
+                  <a:t>Feds. y Confeds. creadas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="518693904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Sector privado'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Federaciones vigentes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'[1]Sector privado'!$A$2:$A$90</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'[1]Sector privado'!$A$50:$A$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'[1]Sector privado'!$D$2:$D$91</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'[1]Sector privado'!$D$50:$D$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>478</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>540</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>579</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>608</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>607</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>576</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>502</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>369</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-070E-44B8-B774-78735C7EEB4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'[1]Sector privado'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Confederaciones vigentes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'[1]Sector privado'!$A$2:$A$90</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'[1]Sector privado'!$A$50:$A$90</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'[1]Sector privado'!$E$2:$E$91</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'[1]Sector privado'!$E$50:$E$91</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-070E-44B8-B774-78735C7EEB4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="-22"/>
+        <c:axId val="518693904"/>
+        <c:axId val="518696784"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="518693904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="518696784"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="518696784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="650"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800"/>
+                  <a:t>Feds. y Confeds.vigentes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="518693904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3639,6 +7417,163 @@
   <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -4678,6 +8613,2018 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4755,6 +10702,1749 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6235</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>67311</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Grupo 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C3CD367-F2AD-43E8-A38C-7F6D91ADF47C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="792480" y="182880"/>
+          <a:ext cx="4761115" cy="4090671"/>
+          <a:chOff x="4760595" y="1268730"/>
+          <a:chExt cx="4761115" cy="4090671"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="3" name="Gráfico 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55A5CEEB-C9A5-1066-C167-0532ECB272E8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="4760595" y="1268730"/>
+          <a:ext cx="4761115" cy="2038350"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="4" name="Gráfico 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{321F6FFB-837A-A119-3DB2-49874182ADB4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="4760595" y="3319464"/>
+          <a:ext cx="4761115" cy="2039937"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10045</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>17145</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="5" name="Grupo 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5521A3BC-0F40-4EBA-ACB7-E5304768F832}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6339840" y="182880"/>
+          <a:ext cx="4764925" cy="4040505"/>
+          <a:chOff x="4751069" y="6821805"/>
+          <a:chExt cx="4764925" cy="4040505"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="6" name="Gráfico 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{363B98CA-8075-6E48-4899-867C2CFD8DD9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="4751069" y="6821805"/>
+          <a:ext cx="4764925" cy="2023110"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="7" name="Gráfico 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7B619A6-D6DE-43F1-1A3B-850B2B834D42}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr>
+            <a:graphicFrameLocks/>
+          </xdr:cNvGraphicFramePr>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="4751069" y="8839200"/>
+          <a:ext cx="4764925" cy="2023110"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Federaciones S."/>
+      <sheetName val="Confederaciones S."/>
+      <sheetName val="Sector privado"/>
+      <sheetName val="Federaciones As."/>
+      <sheetName val="Confederaciones As."/>
+      <sheetName val="Sector público"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>Federaciones creadas</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Confederaciones creadas</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Federaciones vigentes</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Confederaciones vigentes</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1932</v>
+          </cell>
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>0</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1933</v>
+          </cell>
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>1934</v>
+          </cell>
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4">
+            <v>1</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="E4">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>1935</v>
+          </cell>
+          <cell r="B5">
+            <v>0</v>
+          </cell>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
+          <cell r="D5">
+            <v>0</v>
+          </cell>
+          <cell r="E5">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>1936</v>
+          </cell>
+          <cell r="B6">
+            <v>0</v>
+          </cell>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
+          <cell r="D6">
+            <v>0</v>
+          </cell>
+          <cell r="E6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>1937</v>
+          </cell>
+          <cell r="B7">
+            <v>0</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+          <cell r="D7">
+            <v>0</v>
+          </cell>
+          <cell r="E7">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>1938</v>
+          </cell>
+          <cell r="B8">
+            <v>0</v>
+          </cell>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
+          <cell r="D8">
+            <v>0</v>
+          </cell>
+          <cell r="E8">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>1939</v>
+          </cell>
+          <cell r="B9">
+            <v>0</v>
+          </cell>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
+          <cell r="D9">
+            <v>0</v>
+          </cell>
+          <cell r="E9">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>1940</v>
+          </cell>
+          <cell r="B10">
+            <v>0</v>
+          </cell>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
+          <cell r="D10">
+            <v>0</v>
+          </cell>
+          <cell r="E10">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>1941</v>
+          </cell>
+          <cell r="B11">
+            <v>0</v>
+          </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+          <cell r="D11">
+            <v>0</v>
+          </cell>
+          <cell r="E11">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>1942</v>
+          </cell>
+          <cell r="B12">
+            <v>0</v>
+          </cell>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
+          <cell r="D12">
+            <v>0</v>
+          </cell>
+          <cell r="E12">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>1943</v>
+          </cell>
+          <cell r="B13">
+            <v>1</v>
+          </cell>
+          <cell r="C13">
+            <v>0</v>
+          </cell>
+          <cell r="D13">
+            <v>1</v>
+          </cell>
+          <cell r="E13">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>1944</v>
+          </cell>
+          <cell r="B14">
+            <v>0</v>
+          </cell>
+          <cell r="C14">
+            <v>0</v>
+          </cell>
+          <cell r="D14">
+            <v>1</v>
+          </cell>
+          <cell r="E14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>1945</v>
+          </cell>
+          <cell r="B15">
+            <v>0</v>
+          </cell>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
+          <cell r="D15">
+            <v>1</v>
+          </cell>
+          <cell r="E15">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>1946</v>
+          </cell>
+          <cell r="B16">
+            <v>0</v>
+          </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+          <cell r="D16">
+            <v>1</v>
+          </cell>
+          <cell r="E16">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>1947</v>
+          </cell>
+          <cell r="B17">
+            <v>0</v>
+          </cell>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+          <cell r="D17">
+            <v>1</v>
+          </cell>
+          <cell r="E17">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>1948</v>
+          </cell>
+          <cell r="B18">
+            <v>0</v>
+          </cell>
+          <cell r="C18">
+            <v>1</v>
+          </cell>
+          <cell r="D18">
+            <v>1</v>
+          </cell>
+          <cell r="E18">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>1949</v>
+          </cell>
+          <cell r="B19">
+            <v>1</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+          <cell r="D19">
+            <v>2</v>
+          </cell>
+          <cell r="E19">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>1950</v>
+          </cell>
+          <cell r="B20">
+            <v>1</v>
+          </cell>
+          <cell r="C20">
+            <v>0</v>
+          </cell>
+          <cell r="D20">
+            <v>3</v>
+          </cell>
+          <cell r="E20">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>1951</v>
+          </cell>
+          <cell r="B21">
+            <v>1</v>
+          </cell>
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+          <cell r="D21">
+            <v>4</v>
+          </cell>
+          <cell r="E21">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>1952</v>
+          </cell>
+          <cell r="B22">
+            <v>0</v>
+          </cell>
+          <cell r="C22">
+            <v>0</v>
+          </cell>
+          <cell r="D22">
+            <v>4</v>
+          </cell>
+          <cell r="E22">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>1953</v>
+          </cell>
+          <cell r="B23">
+            <v>0</v>
+          </cell>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+          <cell r="D23">
+            <v>4</v>
+          </cell>
+          <cell r="E23">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>1954</v>
+          </cell>
+          <cell r="B24">
+            <v>1</v>
+          </cell>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+          <cell r="D24">
+            <v>5</v>
+          </cell>
+          <cell r="E24">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>1955</v>
+          </cell>
+          <cell r="B25">
+            <v>0</v>
+          </cell>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+          <cell r="D25">
+            <v>5</v>
+          </cell>
+          <cell r="E25">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>1956</v>
+          </cell>
+          <cell r="B26">
+            <v>0</v>
+          </cell>
+          <cell r="C26">
+            <v>0</v>
+          </cell>
+          <cell r="D26">
+            <v>5</v>
+          </cell>
+          <cell r="E26">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>1957</v>
+          </cell>
+          <cell r="B27">
+            <v>0</v>
+          </cell>
+          <cell r="C27">
+            <v>0</v>
+          </cell>
+          <cell r="D27">
+            <v>5</v>
+          </cell>
+          <cell r="E27">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>1958</v>
+          </cell>
+          <cell r="B28">
+            <v>1</v>
+          </cell>
+          <cell r="C28">
+            <v>0</v>
+          </cell>
+          <cell r="D28">
+            <v>6</v>
+          </cell>
+          <cell r="E28">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>1959</v>
+          </cell>
+          <cell r="B29">
+            <v>1</v>
+          </cell>
+          <cell r="C29">
+            <v>0</v>
+          </cell>
+          <cell r="D29">
+            <v>7</v>
+          </cell>
+          <cell r="E29">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>1960</v>
+          </cell>
+          <cell r="B30">
+            <v>2</v>
+          </cell>
+          <cell r="C30">
+            <v>0</v>
+          </cell>
+          <cell r="D30">
+            <v>9</v>
+          </cell>
+          <cell r="E30">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>1961</v>
+          </cell>
+          <cell r="B31">
+            <v>0</v>
+          </cell>
+          <cell r="C31">
+            <v>0</v>
+          </cell>
+          <cell r="D31">
+            <v>9</v>
+          </cell>
+          <cell r="E31">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>1962</v>
+          </cell>
+          <cell r="B32">
+            <v>0</v>
+          </cell>
+          <cell r="C32">
+            <v>0</v>
+          </cell>
+          <cell r="D32">
+            <v>9</v>
+          </cell>
+          <cell r="E32">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>1963</v>
+          </cell>
+          <cell r="B33">
+            <v>1</v>
+          </cell>
+          <cell r="C33">
+            <v>1</v>
+          </cell>
+          <cell r="D33">
+            <v>10</v>
+          </cell>
+          <cell r="E33">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>1964</v>
+          </cell>
+          <cell r="B34">
+            <v>1</v>
+          </cell>
+          <cell r="C34">
+            <v>0</v>
+          </cell>
+          <cell r="D34">
+            <v>11</v>
+          </cell>
+          <cell r="E34">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>1965</v>
+          </cell>
+          <cell r="B35">
+            <v>0</v>
+          </cell>
+          <cell r="C35">
+            <v>1</v>
+          </cell>
+          <cell r="D35">
+            <v>11</v>
+          </cell>
+          <cell r="E35">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>1966</v>
+          </cell>
+          <cell r="B36">
+            <v>0</v>
+          </cell>
+          <cell r="C36">
+            <v>0</v>
+          </cell>
+          <cell r="D36">
+            <v>11</v>
+          </cell>
+          <cell r="E36">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>1967</v>
+          </cell>
+          <cell r="B37">
+            <v>22</v>
+          </cell>
+          <cell r="C37">
+            <v>1</v>
+          </cell>
+          <cell r="D37">
+            <v>33</v>
+          </cell>
+          <cell r="E37">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>1968</v>
+          </cell>
+          <cell r="B38">
+            <v>9</v>
+          </cell>
+          <cell r="C38">
+            <v>3</v>
+          </cell>
+          <cell r="D38">
+            <v>42</v>
+          </cell>
+          <cell r="E38">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>1969</v>
+          </cell>
+          <cell r="B39">
+            <v>4</v>
+          </cell>
+          <cell r="C39">
+            <v>1</v>
+          </cell>
+          <cell r="D39">
+            <v>46</v>
+          </cell>
+          <cell r="E39">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>1970</v>
+          </cell>
+          <cell r="B40">
+            <v>2</v>
+          </cell>
+          <cell r="C40">
+            <v>0</v>
+          </cell>
+          <cell r="D40">
+            <v>48</v>
+          </cell>
+          <cell r="E40">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>1971</v>
+          </cell>
+          <cell r="B41">
+            <v>3</v>
+          </cell>
+          <cell r="C41">
+            <v>0</v>
+          </cell>
+          <cell r="D41">
+            <v>51</v>
+          </cell>
+          <cell r="E41">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>1972</v>
+          </cell>
+          <cell r="B42">
+            <v>2</v>
+          </cell>
+          <cell r="C42">
+            <v>0</v>
+          </cell>
+          <cell r="D42">
+            <v>53</v>
+          </cell>
+          <cell r="E42">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>1973</v>
+          </cell>
+          <cell r="B43">
+            <v>0</v>
+          </cell>
+          <cell r="C43">
+            <v>0</v>
+          </cell>
+          <cell r="D43">
+            <v>53</v>
+          </cell>
+          <cell r="E43">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>1974</v>
+          </cell>
+          <cell r="B44">
+            <v>0</v>
+          </cell>
+          <cell r="C44">
+            <v>0</v>
+          </cell>
+          <cell r="D44">
+            <v>53</v>
+          </cell>
+          <cell r="E44">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>1975</v>
+          </cell>
+          <cell r="B45">
+            <v>0</v>
+          </cell>
+          <cell r="C45">
+            <v>0</v>
+          </cell>
+          <cell r="D45">
+            <v>53</v>
+          </cell>
+          <cell r="E45">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>1976</v>
+          </cell>
+          <cell r="B46">
+            <v>1</v>
+          </cell>
+          <cell r="C46">
+            <v>0</v>
+          </cell>
+          <cell r="D46">
+            <v>54</v>
+          </cell>
+          <cell r="E46">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>1977</v>
+          </cell>
+          <cell r="B47">
+            <v>1</v>
+          </cell>
+          <cell r="C47">
+            <v>0</v>
+          </cell>
+          <cell r="D47">
+            <v>55</v>
+          </cell>
+          <cell r="E47">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>1978</v>
+          </cell>
+          <cell r="B48">
+            <v>0</v>
+          </cell>
+          <cell r="C48">
+            <v>0</v>
+          </cell>
+          <cell r="D48">
+            <v>55</v>
+          </cell>
+          <cell r="E48">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>1979</v>
+          </cell>
+          <cell r="B49">
+            <v>0</v>
+          </cell>
+          <cell r="C49">
+            <v>1</v>
+          </cell>
+          <cell r="D49">
+            <v>55</v>
+          </cell>
+          <cell r="E49">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>1980</v>
+          </cell>
+          <cell r="B50">
+            <v>13</v>
+          </cell>
+          <cell r="C50">
+            <v>6</v>
+          </cell>
+          <cell r="D50">
+            <v>43</v>
+          </cell>
+          <cell r="E50">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>1981</v>
+          </cell>
+          <cell r="B51">
+            <v>11</v>
+          </cell>
+          <cell r="C51">
+            <v>2</v>
+          </cell>
+          <cell r="D51">
+            <v>54</v>
+          </cell>
+          <cell r="E51">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>1982</v>
+          </cell>
+          <cell r="B52">
+            <v>6</v>
+          </cell>
+          <cell r="C52">
+            <v>1</v>
+          </cell>
+          <cell r="D52">
+            <v>60</v>
+          </cell>
+          <cell r="E52">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>1983</v>
+          </cell>
+          <cell r="B53">
+            <v>11</v>
+          </cell>
+          <cell r="C53">
+            <v>3</v>
+          </cell>
+          <cell r="D53">
+            <v>66</v>
+          </cell>
+          <cell r="E53">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>1984</v>
+          </cell>
+          <cell r="B54">
+            <v>18</v>
+          </cell>
+          <cell r="C54">
+            <v>2</v>
+          </cell>
+          <cell r="D54">
+            <v>79</v>
+          </cell>
+          <cell r="E54">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>1985</v>
+          </cell>
+          <cell r="B55">
+            <v>23</v>
+          </cell>
+          <cell r="C55">
+            <v>2</v>
+          </cell>
+          <cell r="D55">
+            <v>98</v>
+          </cell>
+          <cell r="E55">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>1986</v>
+          </cell>
+          <cell r="B56">
+            <v>17</v>
+          </cell>
+          <cell r="C56">
+            <v>2</v>
+          </cell>
+          <cell r="D56">
+            <v>107</v>
+          </cell>
+          <cell r="E56">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>1987</v>
+          </cell>
+          <cell r="B57">
+            <v>14</v>
+          </cell>
+          <cell r="C57">
+            <v>5</v>
+          </cell>
+          <cell r="D57">
+            <v>110</v>
+          </cell>
+          <cell r="E57">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>1988</v>
+          </cell>
+          <cell r="B58">
+            <v>33</v>
+          </cell>
+          <cell r="C58">
+            <v>5</v>
+          </cell>
+          <cell r="D58">
+            <v>128</v>
+          </cell>
+          <cell r="E58">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>1989</v>
+          </cell>
+          <cell r="B59">
+            <v>20</v>
+          </cell>
+          <cell r="C59">
+            <v>0</v>
+          </cell>
+          <cell r="D59">
+            <v>139</v>
+          </cell>
+          <cell r="E59">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>1990</v>
+          </cell>
+          <cell r="B60">
+            <v>40</v>
+          </cell>
+          <cell r="C60">
+            <v>5</v>
+          </cell>
+          <cell r="D60">
+            <v>170</v>
+          </cell>
+          <cell r="E60">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>1991</v>
+          </cell>
+          <cell r="B61">
+            <v>35</v>
+          </cell>
+          <cell r="C61">
+            <v>3</v>
+          </cell>
+          <cell r="D61">
+            <v>184</v>
+          </cell>
+          <cell r="E61">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>1992</v>
+          </cell>
+          <cell r="B62">
+            <v>26</v>
+          </cell>
+          <cell r="C62">
+            <v>1</v>
+          </cell>
+          <cell r="D62">
+            <v>199</v>
+          </cell>
+          <cell r="E62">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>1993</v>
+          </cell>
+          <cell r="B63">
+            <v>24</v>
+          </cell>
+          <cell r="C63">
+            <v>2</v>
+          </cell>
+          <cell r="D63">
+            <v>204</v>
+          </cell>
+          <cell r="E63">
+            <v>36</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>1994</v>
+          </cell>
+          <cell r="B64">
+            <v>26</v>
+          </cell>
+          <cell r="C64">
+            <v>0</v>
+          </cell>
+          <cell r="D64">
+            <v>206</v>
+          </cell>
+          <cell r="E64">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>1995</v>
+          </cell>
+          <cell r="B65">
+            <v>22</v>
+          </cell>
+          <cell r="C65">
+            <v>5</v>
+          </cell>
+          <cell r="D65">
+            <v>213</v>
+          </cell>
+          <cell r="E65">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>1996</v>
+          </cell>
+          <cell r="B66">
+            <v>29</v>
+          </cell>
+          <cell r="C66">
+            <v>0</v>
+          </cell>
+          <cell r="D66">
+            <v>229</v>
+          </cell>
+          <cell r="E66">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>1997</v>
+          </cell>
+          <cell r="B67">
+            <v>23</v>
+          </cell>
+          <cell r="C67">
+            <v>0</v>
+          </cell>
+          <cell r="D67">
+            <v>240</v>
+          </cell>
+          <cell r="E67">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>1998</v>
+          </cell>
+          <cell r="B68">
+            <v>25</v>
+          </cell>
+          <cell r="C68">
+            <v>1</v>
+          </cell>
+          <cell r="D68">
+            <v>253</v>
+          </cell>
+          <cell r="E68">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>1999</v>
+          </cell>
+          <cell r="B69">
+            <v>18</v>
+          </cell>
+          <cell r="C69">
+            <v>3</v>
+          </cell>
+          <cell r="D69">
+            <v>254</v>
+          </cell>
+          <cell r="E69">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>2000</v>
+          </cell>
+          <cell r="B70">
+            <v>23</v>
+          </cell>
+          <cell r="C70">
+            <v>0</v>
+          </cell>
+          <cell r="D70">
+            <v>270</v>
+          </cell>
+          <cell r="E70">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>2001</v>
+          </cell>
+          <cell r="B71">
+            <v>28</v>
+          </cell>
+          <cell r="C71">
+            <v>0</v>
+          </cell>
+          <cell r="D71">
+            <v>284</v>
+          </cell>
+          <cell r="E71">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>2002</v>
+          </cell>
+          <cell r="B72">
+            <v>25</v>
+          </cell>
+          <cell r="C72">
+            <v>0</v>
+          </cell>
+          <cell r="D72">
+            <v>304</v>
+          </cell>
+          <cell r="E72">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>2003</v>
+          </cell>
+          <cell r="B73">
+            <v>39</v>
+          </cell>
+          <cell r="C73">
+            <v>3</v>
+          </cell>
+          <cell r="D73">
+            <v>340</v>
+          </cell>
+          <cell r="E73">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>2004</v>
+          </cell>
+          <cell r="B74">
+            <v>36</v>
+          </cell>
+          <cell r="C74">
+            <v>3</v>
+          </cell>
+          <cell r="D74">
+            <v>373</v>
+          </cell>
+          <cell r="E74">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>2005</v>
+          </cell>
+          <cell r="B75">
+            <v>29</v>
+          </cell>
+          <cell r="C75">
+            <v>0</v>
+          </cell>
+          <cell r="D75">
+            <v>394</v>
+          </cell>
+          <cell r="E75">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>2006</v>
+          </cell>
+          <cell r="B76">
+            <v>36</v>
+          </cell>
+          <cell r="C76">
+            <v>2</v>
+          </cell>
+          <cell r="D76">
+            <v>414</v>
+          </cell>
+          <cell r="E76">
+            <v>47</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>2007</v>
+          </cell>
+          <cell r="B77">
+            <v>38</v>
+          </cell>
+          <cell r="C77">
+            <v>3</v>
+          </cell>
+          <cell r="D77">
+            <v>425</v>
+          </cell>
+          <cell r="E77">
+            <v>49</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>2008</v>
+          </cell>
+          <cell r="B78">
+            <v>48</v>
+          </cell>
+          <cell r="C78">
+            <v>5</v>
+          </cell>
+          <cell r="D78">
+            <v>447</v>
+          </cell>
+          <cell r="E78">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>2009</v>
+          </cell>
+          <cell r="B79">
+            <v>44</v>
+          </cell>
+          <cell r="C79">
+            <v>1</v>
+          </cell>
+          <cell r="D79">
+            <v>478</v>
+          </cell>
+          <cell r="E79">
+            <v>51</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>2010</v>
+          </cell>
+          <cell r="B80">
+            <v>44</v>
+          </cell>
+          <cell r="C80">
+            <v>0</v>
+          </cell>
+          <cell r="D80">
+            <v>506</v>
+          </cell>
+          <cell r="E80">
+            <v>51</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>2011</v>
+          </cell>
+          <cell r="B81">
+            <v>53</v>
+          </cell>
+          <cell r="C81">
+            <v>4</v>
+          </cell>
+          <cell r="D81">
+            <v>530</v>
+          </cell>
+          <cell r="E81">
+            <v>54</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>2012</v>
+          </cell>
+          <cell r="B82">
+            <v>30</v>
+          </cell>
+          <cell r="C82">
+            <v>2</v>
+          </cell>
+          <cell r="D82">
+            <v>540</v>
+          </cell>
+          <cell r="E82">
+            <v>54</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>2013</v>
+          </cell>
+          <cell r="B83">
+            <v>25</v>
+          </cell>
+          <cell r="C83">
+            <v>1</v>
+          </cell>
+          <cell r="D83">
+            <v>544</v>
+          </cell>
+          <cell r="E83">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>2014</v>
+          </cell>
+          <cell r="B84">
+            <v>60</v>
+          </cell>
+          <cell r="C84">
+            <v>2</v>
+          </cell>
+          <cell r="D84">
+            <v>579</v>
+          </cell>
+          <cell r="E84">
+            <v>56</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>2015</v>
+          </cell>
+          <cell r="B85">
+            <v>43</v>
+          </cell>
+          <cell r="C85">
+            <v>1</v>
+          </cell>
+          <cell r="D85">
+            <v>592</v>
+          </cell>
+          <cell r="E85">
+            <v>54</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>2016</v>
+          </cell>
+          <cell r="B86">
+            <v>31</v>
+          </cell>
+          <cell r="C86">
+            <v>2</v>
+          </cell>
+          <cell r="D86">
+            <v>586</v>
+          </cell>
+          <cell r="E86">
+            <v>56</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>2017</v>
+          </cell>
+          <cell r="B87">
+            <v>51</v>
+          </cell>
+          <cell r="C87">
+            <v>5</v>
+          </cell>
+          <cell r="D87">
+            <v>608</v>
+          </cell>
+          <cell r="E87">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>2018</v>
+          </cell>
+          <cell r="B88">
+            <v>27</v>
+          </cell>
+          <cell r="C88">
+            <v>2</v>
+          </cell>
+          <cell r="D88">
+            <v>607</v>
+          </cell>
+          <cell r="E88">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>2019</v>
+          </cell>
+          <cell r="B89">
+            <v>33</v>
+          </cell>
+          <cell r="C89">
+            <v>0</v>
+          </cell>
+          <cell r="D89">
+            <v>576</v>
+          </cell>
+          <cell r="E89">
+            <v>56</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>2020</v>
+          </cell>
+          <cell r="B90">
+            <v>15</v>
+          </cell>
+          <cell r="C90">
+            <v>0</v>
+          </cell>
+          <cell r="D90">
+            <v>502</v>
+          </cell>
+          <cell r="E90">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="B91">
+            <v>1</v>
+          </cell>
+          <cell r="C91">
+            <v>0</v>
+          </cell>
+          <cell r="D91">
+            <v>369</v>
+          </cell>
+          <cell r="E91">
+            <v>40</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sector privado"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5127,15 +12817,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="8" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6988,15 +14678,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8855,8 +16545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8C3094-7F51-4499-B78F-60503DE16E82}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8866,14 +16556,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="8" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10437,4 +18127,19 @@
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87121E4-F77C-40BC-819D-3BE3F088BB0A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>